--- a/BI_CARGA_EXTERNO 07 01 22.xlsx
+++ b/BI_CARGA_EXTERNO 07 01 22.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserdan\Desktop\Desarrollo Cambiaria\AppCambiaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilde\Desktop\Desarrollo Cambiaria\AppCambiaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-32670" windowWidth="16590" windowHeight="1170" tabRatio="599"/>
+    <workbookView xWindow="120" yWindow="-32676" windowWidth="16596" windowHeight="1176" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COMPROBANTES" sheetId="1" r:id="rId1"/>
@@ -1013,12 +1013,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="\$#.00"/>
-    <numFmt numFmtId="173" formatCode="#.00"/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="%#.00"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="\$#.00"/>
+    <numFmt numFmtId="167" formatCode="#.00"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="%#.00"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -1185,13 +1185,13 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
@@ -1200,23 +1200,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -3744,7 +3744,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3776,15 +3776,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="12" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3804,8 +3804,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="12" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3814,8 +3814,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="12" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -40771,36 +40771,36 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="21" customWidth="1"/>
-    <col min="6" max="8" width="12.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="98.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="21" customWidth="1"/>
+    <col min="6" max="8" width="12.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="98.44140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="10"/>
+    <col min="19" max="19" width="14.44140625" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -40851,7 +40851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -40905,7 +40905,7 @@
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
     </row>
-    <row r="3" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -40956,7 +40956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
@@ -41007,7 +41007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -41058,7 +41058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>16</v>
       </c>
@@ -41109,7 +41109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
@@ -41160,7 +41160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>16</v>
       </c>
@@ -41211,7 +41211,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
@@ -41262,7 +41262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -41313,7 +41313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>43</v>
       </c>
@@ -41364,7 +41364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>27</v>
       </c>
@@ -41415,7 +41415,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>62</v>
       </c>
@@ -41466,7 +41466,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>27</v>
       </c>
@@ -41517,7 +41517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
@@ -41568,7 +41568,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>43</v>
       </c>
@@ -41619,7 +41619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>16</v>
       </c>
@@ -41670,7 +41670,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
@@ -41721,7 +41721,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
@@ -41772,7 +41772,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>16</v>
       </c>
@@ -41823,7 +41823,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>16</v>
       </c>
@@ -41874,7 +41874,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>16</v>
       </c>
@@ -41925,7 +41925,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>16</v>
       </c>
@@ -41976,7 +41976,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>16</v>
       </c>
@@ -42027,7 +42027,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>16</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>16</v>
       </c>
@@ -42129,7 +42129,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>16</v>
       </c>
@@ -42183,7 +42183,7 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
     </row>
-    <row r="28" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>16</v>
       </c>
@@ -42237,7 +42237,7 @@
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
     </row>
-    <row r="29" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>16</v>
       </c>
@@ -42288,7 +42288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>16</v>
       </c>
@@ -42339,7 +42339,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>16</v>
       </c>
@@ -42393,7 +42393,7 @@
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>16</v>
       </c>
@@ -42444,7 +42444,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>16</v>
       </c>
@@ -42498,7 +42498,7 @@
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>16</v>
       </c>
@@ -42552,7 +42552,7 @@
         <v>5959047.8600000003</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>16</v>
       </c>
@@ -42610,7 +42610,7 @@
         <v>948168.81000000052</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>16</v>
       </c>
@@ -42664,7 +42664,7 @@
         <v>3547937.34</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>16</v>
       </c>
@@ -42722,7 +42722,7 @@
         <v>418039.79999999981</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>16</v>
       </c>
@@ -42773,7 +42773,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>16</v>
       </c>
@@ -42824,7 +42824,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>16</v>
       </c>
@@ -42875,7 +42875,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>16</v>
       </c>
@@ -42926,7 +42926,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>27</v>
       </c>
@@ -42977,7 +42977,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>16</v>
       </c>
@@ -43028,7 +43028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>16</v>
       </c>
@@ -43079,7 +43079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>132</v>
       </c>
@@ -43130,7 +43130,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>132</v>
       </c>
@@ -43181,7 +43181,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>132</v>
       </c>
@@ -43232,7 +43232,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
         <v>132</v>
       </c>
@@ -43286,19 +43286,19 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M53" s="17">
         <f>+SUM(M2:M32)</f>
         <v>51767591.860000007</v>
       </c>
     </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M54" s="17">
         <f>+SUM(M33:M48)</f>
         <v>20188507.240000002</v>
       </c>
     </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M55" s="17">
         <f>+M53-M54</f>
         <v>31579084.620000005</v>
@@ -43324,23 +43324,23 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="32.5703125" style="2"/>
+    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.5546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="32.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
@@ -43366,7 +43366,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>148</v>
       </c>
@@ -43389,7 +43389,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>148</v>
       </c>
@@ -43415,7 +43415,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>148</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>148</v>
       </c>
@@ -43467,7 +43467,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>148</v>
       </c>
@@ -43493,7 +43493,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>148</v>
       </c>
@@ -43516,7 +43516,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>148</v>
       </c>
@@ -43539,7 +43539,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>148</v>
       </c>
@@ -43562,7 +43562,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>148</v>
       </c>
@@ -43588,7 +43588,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>148</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>148</v>
       </c>
@@ -43640,7 +43640,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>148</v>
       </c>
@@ -43663,7 +43663,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>148</v>
       </c>
@@ -43689,7 +43689,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>148</v>
       </c>
@@ -43715,7 +43715,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>148</v>
       </c>
@@ -43741,7 +43741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>148</v>
       </c>
@@ -43764,7 +43764,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -43790,7 +43790,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>148</v>
       </c>
@@ -43813,7 +43813,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>148</v>
       </c>
@@ -43836,7 +43836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>148</v>
       </c>
@@ -43862,7 +43862,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>148</v>
       </c>
@@ -43888,7 +43888,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>148</v>
       </c>
@@ -43914,7 +43914,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>148</v>
       </c>
@@ -43940,7 +43940,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>148</v>
       </c>
@@ -43966,7 +43966,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>148</v>
       </c>
@@ -43989,7 +43989,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>148</v>
       </c>
@@ -44012,7 +44012,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>148</v>
       </c>
@@ -44035,7 +44035,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>148</v>
       </c>
@@ -44061,7 +44061,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>148</v>
       </c>
@@ -44087,7 +44087,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>148</v>
       </c>
@@ -44113,7 +44113,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>148</v>
       </c>
@@ -44139,7 +44139,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>148</v>
       </c>
@@ -44162,7 +44162,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>148</v>
       </c>
@@ -44185,7 +44185,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>148</v>
       </c>
@@ -44208,7 +44208,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -44231,7 +44231,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -44257,7 +44257,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -44280,7 +44280,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>148</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>148</v>
       </c>
@@ -44329,7 +44329,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>148</v>
       </c>
@@ -44355,7 +44355,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>148</v>
       </c>
@@ -44381,7 +44381,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>148</v>
       </c>
@@ -44404,7 +44404,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>148</v>
       </c>
@@ -44430,7 +44430,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>148</v>
       </c>
@@ -44456,7 +44456,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>148</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>148</v>
       </c>
@@ -44505,7 +44505,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -44531,7 +44531,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>148</v>
       </c>
@@ -44557,7 +44557,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -44583,7 +44583,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -44609,7 +44609,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>148</v>
       </c>
@@ -44635,7 +44635,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
@@ -44658,7 +44658,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>148</v>
       </c>
@@ -44684,7 +44684,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>148</v>
       </c>
@@ -44707,7 +44707,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>148</v>
       </c>
@@ -44730,7 +44730,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>148</v>
       </c>
@@ -44756,7 +44756,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>148</v>
       </c>
@@ -44779,7 +44779,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -44802,7 +44802,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>148</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>148</v>
       </c>
@@ -44848,7 +44848,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -44874,7 +44874,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>148</v>
       </c>
@@ -44900,7 +44900,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
@@ -44926,7 +44926,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>148</v>
       </c>
@@ -44949,7 +44949,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>148</v>
       </c>
@@ -44972,7 +44972,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -44995,7 +44995,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>148</v>
       </c>
@@ -45018,7 +45018,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>148</v>
       </c>
@@ -45044,7 +45044,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G70" s="8"/>
     </row>
   </sheetData>

--- a/BI_CARGA_EXTERNO 07 01 22.xlsx
+++ b/BI_CARGA_EXTERNO 07 01 22.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilde\Desktop\Desarrollo Cambiaria\AppCambiaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserdan\Desktop\Desarrollo Cambiaria\AppCambiaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-32676" windowWidth="16596" windowHeight="1176" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="-32670" windowWidth="16590" windowHeight="1170" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="COMPROBANTES" sheetId="1" r:id="rId1"/>
@@ -40771,36 +40771,38 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="21" customWidth="1"/>
-    <col min="6" max="8" width="12.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="98.44140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="11" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.109375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="22.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="66.140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="10"/>
+    <col min="19" max="19" width="14.42578125" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -40851,7 +40853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -40905,7 +40907,7 @@
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
     </row>
-    <row r="3" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -40956,7 +40958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
@@ -41007,7 +41009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -41058,7 +41060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>16</v>
       </c>
@@ -41109,7 +41111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
@@ -41160,7 +41162,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>16</v>
       </c>
@@ -41211,7 +41213,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
@@ -41262,7 +41264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -41313,7 +41315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>43</v>
       </c>
@@ -41364,7 +41366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>27</v>
       </c>
@@ -41415,7 +41417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>62</v>
       </c>
@@ -41466,7 +41468,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>27</v>
       </c>
@@ -41517,7 +41519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
@@ -41568,7 +41570,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>43</v>
       </c>
@@ -41619,7 +41621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>16</v>
       </c>
@@ -41670,7 +41672,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
@@ -41721,7 +41723,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
@@ -41772,7 +41774,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>16</v>
       </c>
@@ -41823,7 +41825,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>16</v>
       </c>
@@ -41874,7 +41876,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>16</v>
       </c>
@@ -41925,7 +41927,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>16</v>
       </c>
@@ -41976,7 +41978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>16</v>
       </c>
@@ -42027,7 +42029,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>16</v>
       </c>
@@ -42078,7 +42080,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>16</v>
       </c>
@@ -42129,7 +42131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>16</v>
       </c>
@@ -42183,7 +42185,7 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
     </row>
-    <row r="28" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>16</v>
       </c>
@@ -42237,7 +42239,7 @@
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
     </row>
-    <row r="29" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>16</v>
       </c>
@@ -42288,7 +42290,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>16</v>
       </c>
@@ -42339,7 +42341,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>16</v>
       </c>
@@ -42393,7 +42395,7 @@
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>16</v>
       </c>
@@ -42444,7 +42446,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>16</v>
       </c>
@@ -42498,7 +42500,7 @@
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>16</v>
       </c>
@@ -42552,7 +42554,7 @@
         <v>5959047.8600000003</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>16</v>
       </c>
@@ -42610,7 +42612,7 @@
         <v>948168.81000000052</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>16</v>
       </c>
@@ -42664,7 +42666,7 @@
         <v>3547937.34</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>16</v>
       </c>
@@ -42722,7 +42724,7 @@
         <v>418039.79999999981</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>16</v>
       </c>
@@ -42773,7 +42775,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>16</v>
       </c>
@@ -42824,7 +42826,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>16</v>
       </c>
@@ -42875,7 +42877,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>16</v>
       </c>
@@ -42926,7 +42928,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>27</v>
       </c>
@@ -42977,7 +42979,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>16</v>
       </c>
@@ -43028,7 +43030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>16</v>
       </c>
@@ -43079,7 +43081,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>132</v>
       </c>
@@ -43130,7 +43132,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>132</v>
       </c>
@@ -43181,7 +43183,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>132</v>
       </c>
@@ -43232,7 +43234,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>132</v>
       </c>
@@ -43286,19 +43288,19 @@
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M53" s="17">
         <f>+SUM(M2:M32)</f>
         <v>51767591.860000007</v>
       </c>
     </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M54" s="17">
         <f>+SUM(M33:M48)</f>
         <v>20188507.240000002</v>
       </c>
     </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M55" s="17">
         <f>+M53-M54</f>
         <v>31579084.620000005</v>
@@ -43324,23 +43326,23 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.5546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="32.5546875" style="2"/>
+    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.5703125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="32.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
@@ -43366,7 +43368,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>148</v>
       </c>
@@ -43389,7 +43391,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>148</v>
       </c>
@@ -43415,7 +43417,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>148</v>
       </c>
@@ -43441,7 +43443,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>148</v>
       </c>
@@ -43467,7 +43469,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>148</v>
       </c>
@@ -43493,7 +43495,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>148</v>
       </c>
@@ -43516,7 +43518,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>148</v>
       </c>
@@ -43539,7 +43541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>148</v>
       </c>
@@ -43562,7 +43564,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>148</v>
       </c>
@@ -43588,7 +43590,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>148</v>
       </c>
@@ -43614,7 +43616,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>148</v>
       </c>
@@ -43640,7 +43642,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>148</v>
       </c>
@@ -43663,7 +43665,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>148</v>
       </c>
@@ -43689,7 +43691,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>148</v>
       </c>
@@ -43715,7 +43717,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>148</v>
       </c>
@@ -43741,7 +43743,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>148</v>
       </c>
@@ -43764,7 +43766,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -43790,7 +43792,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>148</v>
       </c>
@@ -43813,7 +43815,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>148</v>
       </c>
@@ -43836,7 +43838,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>148</v>
       </c>
@@ -43862,7 +43864,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>148</v>
       </c>
@@ -43888,7 +43890,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>148</v>
       </c>
@@ -43914,7 +43916,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>148</v>
       </c>
@@ -43940,7 +43942,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>148</v>
       </c>
@@ -43966,7 +43968,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>148</v>
       </c>
@@ -43989,7 +43991,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>148</v>
       </c>
@@ -44012,7 +44014,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>148</v>
       </c>
@@ -44035,7 +44037,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>148</v>
       </c>
@@ -44061,7 +44063,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>148</v>
       </c>
@@ -44087,7 +44089,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>148</v>
       </c>
@@ -44113,7 +44115,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>148</v>
       </c>
@@ -44139,7 +44141,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>148</v>
       </c>
@@ -44162,7 +44164,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>148</v>
       </c>
@@ -44185,7 +44187,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>148</v>
       </c>
@@ -44208,7 +44210,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -44231,7 +44233,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>148</v>
       </c>
@@ -44257,7 +44259,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -44280,7 +44282,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>148</v>
       </c>
@@ -44306,7 +44308,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>148</v>
       </c>
@@ -44329,7 +44331,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>148</v>
       </c>
@@ -44355,7 +44357,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>148</v>
       </c>
@@ -44381,7 +44383,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>148</v>
       </c>
@@ -44404,7 +44406,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>148</v>
       </c>
@@ -44430,7 +44432,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>148</v>
       </c>
@@ -44456,7 +44458,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>148</v>
       </c>
@@ -44479,7 +44481,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>148</v>
       </c>
@@ -44505,7 +44507,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -44531,7 +44533,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>148</v>
       </c>
@@ -44557,7 +44559,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -44583,7 +44585,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -44609,7 +44611,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>148</v>
       </c>
@@ -44635,7 +44637,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
@@ -44658,7 +44660,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>148</v>
       </c>
@@ -44684,7 +44686,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>148</v>
       </c>
@@ -44707,7 +44709,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>148</v>
       </c>
@@ -44730,7 +44732,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>148</v>
       </c>
@@ -44756,7 +44758,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>148</v>
       </c>
@@ -44779,7 +44781,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>148</v>
       </c>
@@ -44802,7 +44804,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>148</v>
       </c>
@@ -44825,7 +44827,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>148</v>
       </c>
@@ -44848,7 +44850,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>148</v>
       </c>
@@ -44874,7 +44876,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>148</v>
       </c>
@@ -44900,7 +44902,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
@@ -44926,7 +44928,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>148</v>
       </c>
@@ -44949,7 +44951,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>148</v>
       </c>
@@ -44972,7 +44974,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -44995,7 +44997,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>148</v>
       </c>
@@ -45018,7 +45020,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>148</v>
       </c>
@@ -45044,7 +45046,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G70" s="8"/>
     </row>
   </sheetData>

--- a/BI_CARGA_EXTERNO 07 01 22.xlsx
+++ b/BI_CARGA_EXTERNO 07 01 22.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserdan\Desktop\Desarrollo Cambiaria\AppCambiaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilde\Desktop\Desarrollo Cambiaria\AppCambiaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-32670" windowWidth="16590" windowHeight="1170" tabRatio="599"/>
+    <workbookView xWindow="120" yWindow="-32676" windowWidth="16596" windowHeight="1176" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="COMPROBANTES" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>6296</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>AJUSTE POR ARBITRAJE DE SALDOS (BCE29)</t>
@@ -1007,6 +1004,9 @@
   <si>
     <t>PAGO POR RETRIBUCION AL TITULAR</t>
   </si>
+  <si>
+    <t>L</t>
+  </si>
 </sst>
 </file>
 
@@ -3754,7 +3754,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3823,6 +3823,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2556">
     <cellStyle name="Comma" xfId="1"/>
@@ -33084,7 +33094,7 @@
           </cell>
         </row>
         <row r="5338">
-          <cell r="T5338">
+          <cell r="T5338" t="str">
             <v>1750955</v>
           </cell>
         </row>
@@ -33329,7 +33339,7 @@
           </cell>
         </row>
         <row r="5387">
-          <cell r="T5387">
+          <cell r="T5387" t="str">
             <v>1750961</v>
           </cell>
         </row>
@@ -39509,7 +39519,7 @@
           </cell>
         </row>
         <row r="6623">
-          <cell r="T6623">
+          <cell r="T6623" t="str">
             <v>1751441</v>
           </cell>
         </row>
@@ -40772,37 +40782,37 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="66.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="66.109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="10" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="10"/>
+    <col min="19" max="19" width="14.44140625" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -40853,7 +40863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -40907,7 +40917,7 @@
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
     </row>
-    <row r="3" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
@@ -40958,7 +40968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
@@ -41009,364 +41019,364 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="28" t="str">
+      <c r="I5" s="36" t="str">
         <f>+VLOOKUP(H5,[1]goi!T$2:T$6815,1,)</f>
         <v>0028368</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="39">
         <v>9.2100000000000009</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="40">
         <v>1</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="40">
         <v>63.18</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="28" t="str">
+      <c r="I6" s="36" t="str">
         <f>+VLOOKUP(H6,[1]goi!T$2:T$6815,1,)</f>
         <v>0028368</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="30" t="s">
+      <c r="J6" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="39">
         <v>129.4</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="40">
         <v>1</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="40">
         <v>887.68</v>
       </c>
-      <c r="P6" s="30" t="s">
-        <v>47</v>
+      <c r="P6" s="38" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="28" t="str">
+      <c r="I7" s="36" t="str">
         <f>+VLOOKUP(H7,[1]goi!T$2:T$6815,1,)</f>
         <v>0028368</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="30" t="s">
+      <c r="J7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="39">
         <v>2.66</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="40">
         <v>1</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="40">
         <v>18.25</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="28" t="str">
+      <c r="I8" s="36" t="str">
         <f>+VLOOKUP(H8,[1]goi!T$2:T$6815,1,)</f>
         <v>0028368</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="39">
+        <v>1.44</v>
+      </c>
+      <c r="N8" s="40">
+        <v>1</v>
+      </c>
+      <c r="O8" s="40">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="31">
-        <v>1.44</v>
-      </c>
-      <c r="N8" s="32">
-        <v>1</v>
-      </c>
-      <c r="O8" s="32">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="C9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="36" t="str">
         <f>+VLOOKUP(H9,[1]goi!T$2:T$6815,1,)</f>
         <v>0028368</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="30" t="s">
+      <c r="J9" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="39">
         <v>0.02</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="40">
         <v>1</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="40">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P9" s="30" t="s">
-        <v>47</v>
+      <c r="P9" s="38" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="28" t="str">
+      <c r="I10" s="36" t="str">
         <f>+VLOOKUP(H10,[1]goi!T$2:T$6815,1,)</f>
         <v>0028368</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="39">
         <v>903030.25</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="40">
         <v>1</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="40">
         <v>6194787.5199999996</v>
       </c>
-      <c r="P10" s="30" t="s">
-        <v>47</v>
+      <c r="P10" s="38" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="28" t="str">
+      <c r="I11" s="36" t="str">
         <f>+VLOOKUP(H11,[1]goi!T$2:T$6815,1,)</f>
         <v>0028368</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="39">
+        <v>2724.15</v>
+      </c>
+      <c r="N11" s="40">
+        <v>1</v>
+      </c>
+      <c r="O11" s="40">
+        <v>18687.669999999998</v>
+      </c>
+      <c r="P11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="31">
-        <v>2724.15</v>
-      </c>
-      <c r="N11" s="32">
-        <v>1</v>
-      </c>
-      <c r="O11" s="32">
-        <v>18687.669999999998</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="12" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>27</v>
       </c>
@@ -41389,7 +41399,7 @@
         <v>39</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="28" t="str">
         <f>+VLOOKUP(H12,[1]goi!T$2:T$6815,1,)</f>
@@ -41399,7 +41409,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" s="28" t="s">
         <v>22</v>
@@ -41417,15 +41427,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>34</v>
@@ -41437,10 +41447,10 @@
         <v>21</v>
       </c>
       <c r="G13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="I13" s="28" t="str">
         <f>+VLOOKUP(H13,[1]goi!T$2:T$6815,1,)</f>
@@ -41450,7 +41460,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="28" t="s">
         <v>22</v>
@@ -41465,10 +41475,10 @@
         <v>25571.13</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>27</v>
       </c>
@@ -41488,10 +41498,10 @@
         <v>21</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="28" t="str">
         <f>+VLOOKUP(H14,[1]goi!T$2:T$6815,1,)</f>
@@ -41501,7 +41511,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="28" t="s">
         <v>22</v>
@@ -41516,18 +41526,18 @@
         <v>266.85000000000002</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>34</v>
@@ -41539,10 +41549,10 @@
         <v>21</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="28" t="str">
         <f>+VLOOKUP(H15,[1]goi!T$2:T$6815,1,)</f>
@@ -41552,7 +41562,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="28" t="s">
         <v>22</v>
@@ -41567,10 +41577,10 @@
         <v>102900000</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>43</v>
       </c>
@@ -41590,10 +41600,10 @@
         <v>21</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="28" t="str">
         <f>+VLOOKUP(H16,[1]goi!T$2:T$6815,1,)</f>
@@ -41603,7 +41613,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L16" s="28" t="s">
         <v>22</v>
@@ -41618,18 +41628,18 @@
         <v>41029.39</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>34</v>
@@ -41641,10 +41651,10 @@
         <v>21</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="28" t="str">
         <f>+VLOOKUP(H17,[1]goi!T$2:T$6815,1,)</f>
@@ -41654,7 +41664,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="28" t="s">
         <v>22</v>
@@ -41669,18 +41679,18 @@
         <v>68600000</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>34</v>
@@ -41692,10 +41702,10 @@
         <v>21</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="28" t="str">
         <f>+VLOOKUP(H18,[1]goi!T$2:T$6815,1,)</f>
@@ -41705,7 +41715,7 @@
         <v>21</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="28" t="s">
         <v>22</v>
@@ -41720,18 +41730,18 @@
         <v>4796.03</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>34</v>
@@ -41743,10 +41753,10 @@
         <v>21</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="28" t="str">
         <f>+VLOOKUP(H19,[1]goi!T$2:T$6815,1,)</f>
@@ -41756,7 +41766,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L19" s="28" t="s">
         <v>22</v>
@@ -41771,18 +41781,18 @@
         <v>4718.24</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>34</v>
@@ -41794,10 +41804,10 @@
         <v>21</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="28" t="str">
         <f>+VLOOKUP(H20,[1]goi!T$2:T$6815,1,)</f>
@@ -41807,7 +41817,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="28" t="s">
         <v>22</v>
@@ -41822,18 +41832,18 @@
         <v>17150000</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>34</v>
@@ -41845,10 +41855,10 @@
         <v>21</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="28" t="str">
         <f>+VLOOKUP(H21,[1]goi!T$2:T$6815,1,)</f>
@@ -41858,7 +41868,7 @@
         <v>21</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L21" s="28" t="s">
         <v>22</v>
@@ -41873,10 +41883,10 @@
         <v>20580000</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>16</v>
       </c>
@@ -41896,10 +41906,10 @@
         <v>21</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="28" t="str">
         <f>+VLOOKUP(H22,[1]goi!T$2:T$6815,1,)</f>
@@ -41909,7 +41919,7 @@
         <v>21</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" s="28" t="s">
         <v>22</v>
@@ -41924,18 +41934,18 @@
         <v>2351.7199999999998</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>34</v>
@@ -41947,10 +41957,10 @@
         <v>21</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="28" t="str">
         <f>+VLOOKUP(H23,[1]goi!T$2:T$6815,1,)</f>
@@ -41960,7 +41970,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L23" s="28" t="s">
         <v>22</v>
@@ -41975,18 +41985,18 @@
         <v>824469.1</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>34</v>
@@ -41998,10 +42008,10 @@
         <v>21</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I24" s="28" t="str">
         <f>+VLOOKUP(H24,[1]goi!T$2:T$6815,1,)</f>
@@ -42011,7 +42021,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L24" s="28" t="s">
         <v>22</v>
@@ -42026,18 +42036,18 @@
         <v>3301032</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>34</v>
@@ -42049,10 +42059,10 @@
         <v>21</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I25" s="28" t="str">
         <f>+VLOOKUP(H25,[1]goi!T$2:T$6815,1,)</f>
@@ -42062,7 +42072,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L25" s="28" t="s">
         <v>22</v>
@@ -42077,18 +42087,18 @@
         <v>4595308.2</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>34</v>
@@ -42100,10 +42110,10 @@
         <v>21</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I26" s="28" t="str">
         <f>+VLOOKUP(H26,[1]goi!T$2:T$6815,1,)</f>
@@ -42113,7 +42123,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L26" s="28" t="s">
         <v>22</v>
@@ -42128,18 +42138,18 @@
         <v>4872.66</v>
       </c>
       <c r="P26" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>34</v>
@@ -42151,10 +42161,10 @@
         <v>21</v>
       </c>
       <c r="G27" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="I27" s="28" t="str">
         <f>+VLOOKUP(H27,[1]goi!T$2:T$6815,1,)</f>
@@ -42164,7 +42174,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>22</v>
@@ -42185,15 +42195,15 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
     </row>
-    <row r="28" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>34</v>
@@ -42205,20 +42215,20 @@
         <v>21</v>
       </c>
       <c r="G28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="I28" s="28" t="str">
         <f>+VLOOKUP(H28,[1]goi!T$2:T$6815,1,)</f>
         <v>1750703</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L28" s="22" t="s">
         <v>31</v>
@@ -42239,15 +42249,15 @@
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
     </row>
-    <row r="29" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>34</v>
@@ -42259,10 +42269,10 @@
         <v>21</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I29" s="28" t="str">
         <f>+VLOOKUP(H29,[1]goi!T$2:T$6815,1,)</f>
@@ -42272,7 +42282,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L29" s="28" t="s">
         <v>22</v>
@@ -42287,18 +42297,18 @@
         <v>87787.42</v>
       </c>
       <c r="P29" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>34</v>
@@ -42310,10 +42320,10 @@
         <v>21</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" s="28" t="str">
         <f>+VLOOKUP(H30,[1]goi!T$2:T$6815,1,)</f>
@@ -42323,7 +42333,7 @@
         <v>21</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L30" s="28" t="s">
         <v>22</v>
@@ -42338,18 +42348,18 @@
         <v>34300</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>34</v>
@@ -42361,10 +42371,10 @@
         <v>21</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="28" t="str">
         <f>+VLOOKUP(H31,[1]goi!T$2:T$6815,1,)</f>
@@ -42374,7 +42384,7 @@
         <v>21</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L31" s="28" t="s">
         <v>22</v>
@@ -42389,21 +42399,21 @@
         <v>307876.8</v>
       </c>
       <c r="P31" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q31" s="33"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
     </row>
-    <row r="32" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>34</v>
@@ -42415,10 +42425,10 @@
         <v>21</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I32" s="28" t="str">
         <f>+VLOOKUP(H32,[1]goi!T$2:T$6815,1,)</f>
@@ -42428,7 +42438,7 @@
         <v>21</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L32" s="28" t="s">
         <v>22</v>
@@ -42443,18 +42453,18 @@
         <v>11009.27</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>34</v>
@@ -42466,10 +42476,10 @@
         <v>21</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I33" s="28" t="str">
         <f>+VLOOKUP(H33,[1]goi!T$2:T$6815,1,)</f>
@@ -42479,7 +42489,7 @@
         <v>21</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L33" s="28" t="s">
         <v>22</v>
@@ -42494,21 +42504,21 @@
         <v>11190.65</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="33"/>
       <c r="R33" s="33"/>
       <c r="S33" s="33"/>
     </row>
-    <row r="34" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>34</v>
@@ -42520,20 +42530,20 @@
         <v>21</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I34" s="28" t="str">
         <f>+VLOOKUP(H34,[1]goi!T$2:T$6815,1,)</f>
         <v>1751094</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L34" s="28" t="s">
         <v>31</v>
@@ -42548,21 +42558,21 @@
         <v>40879068.32</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R34" s="33">
         <v>5959047.8600000003</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>34</v>
@@ -42574,20 +42584,20 @@
         <v>21</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="28" t="str">
         <f>+VLOOKUP(H35,[1]goi!T$2:T$6815,1,)</f>
         <v>1751094</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L35" s="28" t="s">
         <v>31</v>
@@ -42602,7 +42612,7 @@
         <v>40879068.32</v>
       </c>
       <c r="P35" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R35" s="33">
         <v>5010879.05</v>
@@ -42612,15 +42622,15 @@
         <v>948168.81000000052</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>34</v>
@@ -42632,20 +42642,20 @@
         <v>21</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="28" t="str">
         <f>+VLOOKUP(H36,[1]goi!T$2:T$6815,1,)</f>
         <v>1751095</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L36" s="28" t="s">
         <v>31</v>
@@ -42660,21 +42670,21 @@
         <v>24338850.149999999</v>
       </c>
       <c r="P36" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R36" s="33">
         <v>3547937.34</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>101</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>34</v>
@@ -42686,20 +42696,20 @@
         <v>21</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="28" t="str">
         <f>+VLOOKUP(H37,[1]goi!T$2:T$6815,1,)</f>
         <v>1751095</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L37" s="28" t="s">
         <v>31</v>
@@ -42714,7 +42724,7 @@
         <v>24338850.149999999</v>
       </c>
       <c r="P37" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R37" s="33">
         <v>3129897.54</v>
@@ -42724,15 +42734,15 @@
         <v>418039.79999999981</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>34</v>
@@ -42744,10 +42754,10 @@
         <v>21</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="28" t="str">
         <f>+VLOOKUP(H38,[1]goi!T$2:T$6815,1,)</f>
@@ -42757,7 +42767,7 @@
         <v>21</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L38" s="28" t="s">
         <v>22</v>
@@ -42772,18 +42782,18 @@
         <v>34069117.710000001</v>
       </c>
       <c r="P38" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>34</v>
@@ -42795,10 +42805,10 @@
         <v>21</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="28" t="str">
         <f>+VLOOKUP(H39,[1]goi!T$2:T$6815,1,)</f>
@@ -42808,7 +42818,7 @@
         <v>21</v>
       </c>
       <c r="K39" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L39" s="28" t="s">
         <v>22</v>
@@ -42823,18 +42833,18 @@
         <v>526510.15</v>
       </c>
       <c r="P39" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>34</v>
@@ -42846,10 +42856,10 @@
         <v>21</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="28" t="str">
         <f>+VLOOKUP(H40,[1]goi!T$2:T$6815,1,)</f>
@@ -42859,7 +42869,7 @@
         <v>21</v>
       </c>
       <c r="K40" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L40" s="28" t="s">
         <v>22</v>
@@ -42874,18 +42884,18 @@
         <v>142986.68</v>
       </c>
       <c r="P40" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D41" s="28" t="s">
         <v>34</v>
@@ -42897,10 +42907,10 @@
         <v>21</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I41" s="28" t="str">
         <f>+VLOOKUP(H41,[1]goi!T$2:T$6815,1,)</f>
@@ -42910,7 +42920,7 @@
         <v>21</v>
       </c>
       <c r="K41" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L41" s="28" t="s">
         <v>22</v>
@@ -42925,10 +42935,10 @@
         <v>7237.3</v>
       </c>
       <c r="P41" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>27</v>
       </c>
@@ -42948,20 +42958,20 @@
         <v>21</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="28" t="str">
         <f>+VLOOKUP(H42,[1]goi!T$2:T$6815,1,)</f>
         <v>1751442</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L42" s="28" t="s">
         <v>31</v>
@@ -42976,18 +42986,18 @@
         <v>562932.93999999994</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D43" s="28" t="s">
         <v>34</v>
@@ -42999,10 +43009,10 @@
         <v>21</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I43" s="28" t="str">
         <f>+VLOOKUP(H43,[1]goi!T$2:T$6815,1,)</f>
@@ -43012,7 +43022,7 @@
         <v>21</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L43" s="28" t="s">
         <v>22</v>
@@ -43027,18 +43037,18 @@
         <v>7426.09</v>
       </c>
       <c r="P43" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>34</v>
@@ -43050,10 +43060,10 @@
         <v>21</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I44" s="28" t="str">
         <f>+VLOOKUP(H44,[1]goi!T$2:T$6815,1,)</f>
@@ -43063,7 +43073,7 @@
         <v>21</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L44" s="28" t="s">
         <v>22</v>
@@ -43078,18 +43088,18 @@
         <v>11765.24</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="C45" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>134</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>34</v>
@@ -43101,10 +43111,10 @@
         <v>21</v>
       </c>
       <c r="G45" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="I45" s="28" t="str">
         <f>+VLOOKUP(H45,[1]goi!T$2:T$6815,1,)</f>
@@ -43114,7 +43124,7 @@
         <v>21</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L45" s="28" t="s">
         <v>22</v>
@@ -43129,18 +43139,18 @@
         <v>274.39999999999998</v>
       </c>
       <c r="P45" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="C46" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>134</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>34</v>
@@ -43152,20 +43162,20 @@
         <v>21</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="28" t="str">
         <f>+VLOOKUP(H46,[1]goi!T$2:T$6815,1,)</f>
         <v>1989965</v>
       </c>
       <c r="J46" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L46" s="28" t="s">
         <v>31</v>
@@ -43180,18 +43190,18 @@
         <v>20580000</v>
       </c>
       <c r="P46" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="28" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="28" t="s">
+      <c r="C47" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>143</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>34</v>
@@ -43206,17 +43216,17 @@
         <v>31</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="28" t="str">
         <f>+VLOOKUP(H47,[1]goi!T$2:T$6815,1,)</f>
         <v>1990005</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L47" s="28" t="s">
         <v>31</v>
@@ -43231,18 +43241,18 @@
         <v>205800</v>
       </c>
       <c r="P47" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="C48" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>134</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>34</v>
@@ -43254,20 +43264,20 @@
         <v>21</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="28" t="str">
         <f>+VLOOKUP(H48,[1]goi!T$2:T$6815,1,)</f>
         <v>1990012</v>
       </c>
       <c r="J48" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L48" s="28" t="s">
         <v>31</v>
@@ -43282,36 +43292,31 @@
         <v>17150000</v>
       </c>
       <c r="P48" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q48" s="33"/>
       <c r="R48" s="33"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M53" s="17">
         <f>+SUM(M2:M32)</f>
         <v>51767591.860000007</v>
       </c>
     </row>
-    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M54" s="17">
         <f>+SUM(M33:M48)</f>
         <v>20188507.240000002</v>
       </c>
     </row>
-    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M55" s="17">
         <f>+M53-M54</f>
         <v>31579084.620000005</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S48">
-    <sortState ref="A2:S48">
-      <sortCondition ref="H1:H48"/>
-    </sortState>
-  </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
@@ -43330,1723 +43335,1723 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="56.5703125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="32.5703125" style="2"/>
+    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56.5546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="32.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>155</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>157</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="F5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>162</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="G6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="G7" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>169</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="E9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="G9" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="E10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>177</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>180</v>
       </c>
+      <c r="E12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>183</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>185</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>188</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>192</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="C17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>196</v>
-      </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
+      <c r="C22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>201</v>
+      <c r="C23" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>203</v>
+      <c r="C24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>204</v>
+      <c r="C25" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>196</v>
+      <c r="C26" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>209</v>
+      <c r="C27" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>214</v>
+      <c r="C28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>214</v>
+      <c r="C29" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>214</v>
+      <c r="C30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>221</v>
+      <c r="C31" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H32" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>238</v>
       </c>
+      <c r="E33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>239</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="E62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="E66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>314</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="C68" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G70" s="8"/>
     </row>
   </sheetData>
